--- a/data/output/FV2410_FV2404/UTILMD/55156.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55156.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4338" uniqueCount="368">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4359" uniqueCount="368">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1223,6 +1223,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U191" totalsRowShown="0">
+  <autoFilter ref="A1:U191"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1512,7 +1542,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10796,5 +10829,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55156.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55156.xlsx
@@ -2203,7 +2203,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4103,7 +4103,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4523,7 +4523,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4745,7 +4745,7 @@
         <v>348</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4907,7 +4907,7 @@
         <v>348</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5311,7 +5311,7 @@
         <v>348</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5619,7 +5619,7 @@
         <v>350</v>
       </c>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -6105,7 +6105,7 @@
         <v>354</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -6365,7 +6365,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -6621,7 +6621,7 @@
         <v>356</v>
       </c>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -6821,7 +6821,7 @@
         <v>356</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -7021,7 +7021,7 @@
         <v>357</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -7325,7 +7325,7 @@
         <v>358</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7685,7 +7685,7 @@
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -8141,7 +8141,7 @@
         <v>360</v>
       </c>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -8353,7 +8353,7 @@
         <v>361</v>
       </c>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -8661,7 +8661,7 @@
         <v>362</v>
       </c>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -8927,7 +8927,7 @@
         <v>359</v>
       </c>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -9185,7 +9185,7 @@
         <v>363</v>
       </c>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="K143" s="2"/>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -9909,7 +9909,7 @@
         <v>366</v>
       </c>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -10215,7 +10215,7 @@
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -10457,7 +10457,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -11291,7 +11291,7 @@
         <v>368</v>
       </c>
       <c r="L178" s="4"/>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -11439,7 +11439,7 @@
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -11597,7 +11597,7 @@
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -11841,7 +11841,7 @@
       </c>
       <c r="K189" s="2"/>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N189" s="2"/>
